--- a/VARIAÇÃO ÍNDICES/variacao_imob.xlsx
+++ b/VARIAÇÃO ÍNDICES/variacao_imob.xlsx
@@ -431,7 +431,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -495,343 +495,63 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="2">
-        <v>44651</v>
+        <v>44719</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="2">
-        <v>44652</v>
+        <v>44720</v>
       </c>
       <c r="B3">
-        <v>2.87</v>
+        <v>-2.39</v>
       </c>
       <c r="C3">
-        <v>0.23</v>
+        <v>-0.62</v>
       </c>
       <c r="D3">
-        <v>-0.6</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="E3">
-        <v>1.49</v>
+        <v>-1.75</v>
       </c>
       <c r="F3">
-        <v>-1.02</v>
+        <v>-1.91</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>-3.39</v>
       </c>
       <c r="H3">
-        <v>-1.7</v>
+        <v>-2.44</v>
       </c>
       <c r="I3">
-        <v>-0.5499999999999999</v>
+        <v>-4.64</v>
       </c>
       <c r="J3">
-        <v>-0.16</v>
+        <v>-3.76</v>
       </c>
       <c r="K3">
-        <v>-1.91</v>
+        <v>-2.93</v>
       </c>
       <c r="L3">
-        <v>-1.62</v>
+        <v>-1.53</v>
       </c>
       <c r="M3">
-        <v>0.46</v>
+        <v>-4.93</v>
       </c>
       <c r="N3">
-        <v>-1.7</v>
+        <v>-3.46</v>
       </c>
       <c r="O3">
-        <v>-1.73</v>
+        <v>-0.52</v>
       </c>
       <c r="P3">
-        <v>-1.38</v>
+        <v>-1.88</v>
       </c>
       <c r="Q3">
-        <v>-1.43</v>
+        <v>-3.06</v>
       </c>
       <c r="R3">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" s="2">
-        <v>44655</v>
-      </c>
-      <c r="B4">
-        <v>0.15</v>
-      </c>
-      <c r="C4">
-        <v>0.32</v>
-      </c>
-      <c r="D4">
-        <v>0.2</v>
-      </c>
-      <c r="E4">
-        <v>1.31</v>
-      </c>
-      <c r="F4">
-        <v>1.31</v>
-      </c>
-      <c r="G4">
-        <v>-0.46</v>
-      </c>
-      <c r="H4">
-        <v>0.41</v>
-      </c>
-      <c r="I4">
-        <v>-1.57</v>
-      </c>
-      <c r="J4">
-        <v>-0.8200000000000001</v>
-      </c>
-      <c r="K4">
-        <v>2.85</v>
-      </c>
-      <c r="L4">
-        <v>-0.76</v>
-      </c>
-      <c r="M4">
-        <v>1.07</v>
-      </c>
-      <c r="N4">
-        <v>-0.17</v>
-      </c>
-      <c r="O4">
-        <v>-1.71</v>
-      </c>
-      <c r="P4">
-        <v>2.26</v>
-      </c>
-      <c r="Q4">
-        <v>1.96</v>
-      </c>
-      <c r="R4">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="2">
-        <v>44656</v>
-      </c>
-      <c r="B5">
-        <v>-1.56</v>
-      </c>
-      <c r="C5">
-        <v>-3.3</v>
-      </c>
-      <c r="D5">
-        <v>-2.15</v>
-      </c>
-      <c r="E5">
-        <v>-3.87</v>
-      </c>
-      <c r="F5">
-        <v>-3.53</v>
-      </c>
-      <c r="G5">
-        <v>-5.58</v>
-      </c>
-      <c r="H5">
-        <v>-2.09</v>
-      </c>
-      <c r="I5">
-        <v>-0.06999999999999999</v>
-      </c>
-      <c r="J5">
-        <v>-0.8200000000000001</v>
-      </c>
-      <c r="K5">
-        <v>-2.33</v>
-      </c>
-      <c r="L5">
-        <v>-1.27</v>
-      </c>
-      <c r="M5">
-        <v>-2.57</v>
-      </c>
-      <c r="N5">
-        <v>0.09</v>
-      </c>
-      <c r="O5">
-        <v>1.03</v>
-      </c>
-      <c r="P5">
-        <v>-2.89</v>
-      </c>
-      <c r="Q5">
-        <v>-2.42</v>
-      </c>
-      <c r="R5">
-        <v>-2.89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="A6" s="2">
-        <v>44657</v>
-      </c>
-      <c r="B6">
-        <v>0.54</v>
-      </c>
-      <c r="C6">
-        <v>-1.25</v>
-      </c>
-      <c r="D6">
-        <v>-1.33</v>
-      </c>
-      <c r="E6">
-        <v>-0.84</v>
-      </c>
-      <c r="F6">
-        <v>-4.23</v>
-      </c>
-      <c r="G6">
-        <v>-5.67</v>
-      </c>
-      <c r="H6">
-        <v>2.43</v>
-      </c>
-      <c r="I6">
-        <v>-0.4</v>
-      </c>
-      <c r="J6">
-        <v>-0.5</v>
-      </c>
-      <c r="K6">
-        <v>-0.3</v>
-      </c>
-      <c r="L6">
-        <v>1.38</v>
-      </c>
-      <c r="M6">
-        <v>-2.8</v>
-      </c>
-      <c r="N6">
-        <v>2.16</v>
-      </c>
-      <c r="O6">
-        <v>1.32</v>
-      </c>
-      <c r="P6">
-        <v>-1.88</v>
-      </c>
-      <c r="Q6">
-        <v>-1.02</v>
-      </c>
-      <c r="R6">
-        <v>1.51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="A7" s="2">
-        <v>44658</v>
-      </c>
-      <c r="B7">
-        <v>-0.6799999999999999</v>
-      </c>
-      <c r="C7">
-        <v>6.959999999999999</v>
-      </c>
-      <c r="D7">
-        <v>-4.82</v>
-      </c>
-      <c r="E7">
-        <v>-0.51</v>
-      </c>
-      <c r="F7">
-        <v>1.76</v>
-      </c>
-      <c r="G7">
-        <v>2.74</v>
-      </c>
-      <c r="H7">
-        <v>-3.78</v>
-      </c>
-      <c r="I7">
-        <v>-2.43</v>
-      </c>
-      <c r="J7">
-        <v>-2.67</v>
-      </c>
-      <c r="K7">
-        <v>-1.05</v>
-      </c>
-      <c r="L7">
-        <v>-1.65</v>
-      </c>
-      <c r="M7">
-        <v>0.5599999999999999</v>
-      </c>
-      <c r="N7">
-        <v>-1.57</v>
-      </c>
-      <c r="O7">
-        <v>-0.32</v>
-      </c>
-      <c r="P7">
-        <v>0.64</v>
-      </c>
-      <c r="Q7">
-        <v>-0.15</v>
-      </c>
-      <c r="R7">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="A8" s="2">
-        <v>44659</v>
-      </c>
-      <c r="B8">
-        <v>-1.94</v>
-      </c>
-      <c r="C8">
-        <v>-2.97</v>
-      </c>
-      <c r="D8">
-        <v>-2.51</v>
-      </c>
-      <c r="E8">
-        <v>-0.8500000000000001</v>
-      </c>
-      <c r="F8">
-        <v>-1.73</v>
-      </c>
-      <c r="G8">
-        <v>-0.89</v>
-      </c>
-      <c r="H8">
-        <v>-2.12</v>
-      </c>
-      <c r="I8">
-        <v>0.34</v>
-      </c>
-      <c r="J8">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="K8">
-        <v>-1.36</v>
-      </c>
-      <c r="L8">
-        <v>0.39</v>
-      </c>
-      <c r="M8">
-        <v>2.22</v>
-      </c>
-      <c r="N8">
-        <v>0.06</v>
-      </c>
-      <c r="O8">
-        <v>-2.25</v>
-      </c>
-      <c r="P8">
-        <v>-2.38</v>
-      </c>
-      <c r="Q8">
-        <v>-3.62</v>
-      </c>
-      <c r="R8">
-        <v>-2.04</v>
+        <v>-3.77</v>
       </c>
     </row>
   </sheetData>
